--- a/arquivos uteis/trabalho de edb - tipos - substitui foto.xlsx
+++ b/arquivos uteis/trabalho de edb - tipos - substitui foto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="4">
   <si>
     <t>x</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>tamanho, tipo</t>
+  </si>
+  <si>
+    <t>excluidos</t>
   </si>
 </sst>
 </file>
@@ -54,7 +57,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +82,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -202,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,10 +255,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -978,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BE19"/>
+  <dimension ref="B1:BE20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,16 +1015,16 @@
   <sheetData>
     <row r="1" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>3</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>4</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="15">
         <v>5</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>7</v>
       </c>
     </row>
@@ -1114,31 +1135,33 @@
       <c r="AH4" s="6"/>
       <c r="AI4" s="8"/>
       <c r="AK4" s="5"/>
-      <c r="AL4" s="15">
+      <c r="AL4" s="20">
         <v>1</v>
       </c>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15">
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="20">
         <v>2</v>
       </c>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15">
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="20"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="20">
         <v>3</v>
       </c>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15">
+      <c r="AY4" s="20"/>
+      <c r="AZ4" s="20"/>
+      <c r="BA4" s="20"/>
+      <c r="BB4" s="20">
         <v>4</v>
       </c>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
       <c r="BE4" s="8"/>
     </row>
     <row r="5" spans="2:57" x14ac:dyDescent="0.25">
@@ -1205,14 +1228,27 @@
       <c r="AH5" s="6"/>
       <c r="AI5" s="8"/>
       <c r="AK5" s="5"/>
-      <c r="AX5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="7" t="s">
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="17"/>
+      <c r="BD5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BE5" s="8"/>
@@ -1257,36 +1293,39 @@
       <c r="AH6" s="6"/>
       <c r="AI6" s="8"/>
       <c r="AK6" s="5"/>
-      <c r="AL6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
-      <c r="AX6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="7" t="s">
+      <c r="AL6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="17"/>
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="17"/>
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BE6" s="8"/>
@@ -1329,36 +1368,39 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="8"/>
       <c r="AK7" s="5"/>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AX7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="14" t="s">
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="17"/>
+      <c r="AS7" s="17"/>
+      <c r="AT7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="17"/>
+      <c r="AV7" s="17"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BE7" s="8"/>
@@ -1392,36 +1434,39 @@
       <c r="AH8" s="6"/>
       <c r="AI8" s="8"/>
       <c r="AK8" s="5"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AR8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BB8" s="6"/>
-      <c r="BC8" s="6"/>
-      <c r="BD8" s="7" t="s">
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="17"/>
+      <c r="AZ8" s="17"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="17"/>
+      <c r="BD8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BE8" s="8"/>
@@ -1453,47 +1498,62 @@
       <c r="AH9" s="6"/>
       <c r="AI9" s="8"/>
       <c r="AK9" s="5"/>
-      <c r="AX9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-      <c r="BB9" s="6"/>
-      <c r="BC9" s="6"/>
-      <c r="BD9" s="7" t="s">
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BE9" s="8"/>
     </row>
     <row r="10" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S10" s="5"/>
-      <c r="T10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="14" t="s">
+      <c r="T10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="19" t="s">
         <v>0</v>
       </c>
       <c r="AI10" s="8"/>
@@ -1521,27 +1581,27 @@
     </row>
     <row r="11" spans="2:57" x14ac:dyDescent="0.25">
       <c r="S11" s="5"/>
-      <c r="T11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="7" t="s">
+      <c r="T11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="19" t="s">
         <v>0</v>
       </c>
       <c r="AI11" s="8"/>
@@ -1551,33 +1611,35 @@
     </row>
     <row r="12" spans="2:57" x14ac:dyDescent="0.25">
       <c r="S12" s="5"/>
-      <c r="T12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6"/>
-      <c r="X12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="7" t="s">
+      <c r="T12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="17"/>
+      <c r="X12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="19" t="s">
         <v>0</v>
       </c>
       <c r="AI12" s="8"/>
@@ -1603,120 +1665,124 @@
     </row>
     <row r="14" spans="2:57" x14ac:dyDescent="0.25">
       <c r="S14" s="5"/>
-      <c r="T14" s="13">
+      <c r="T14" s="16">
         <v>7</v>
       </c>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="13">
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="16">
         <v>8</v>
       </c>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AB14" s="13">
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="16">
         <v>9</v>
       </c>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="13">
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="16">
         <v>10</v>
       </c>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
       <c r="AI14" s="8"/>
     </row>
     <row r="15" spans="2:57" x14ac:dyDescent="0.25">
       <c r="S15" s="5"/>
-      <c r="T15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6"/>
-      <c r="AB15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="7" t="s">
+      <c r="T15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="19" t="s">
         <v>0</v>
       </c>
       <c r="AI15" s="8"/>
     </row>
     <row r="16" spans="2:57" x14ac:dyDescent="0.25">
       <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6"/>
-      <c r="AB16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="14" t="s">
+      <c r="T16" s="17"/>
+      <c r="U16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="19" t="s">
         <v>0</v>
       </c>
       <c r="AI16" s="8"/>
     </row>
     <row r="17" spans="3:35" x14ac:dyDescent="0.25">
       <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="7" t="s">
+      <c r="T17" s="17"/>
+      <c r="U17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="19" t="s">
         <v>0</v>
       </c>
       <c r="AI17" s="8"/>
@@ -1745,6 +1811,13 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="S20" s="18"/>
+      <c r="T20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1754,9 +1827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
